--- a/src/nasem_dairy/data/Variable List.xlsx
+++ b/src/nasem_dairy/data/Variable List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braeden\OneDrive - University of Guelph\NASEM Model Python\NASEM-Model-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/innesd_uoguelph_ca/Documents/UoG/UoG Python/NASEM-Model-Python/src/nasem_dairy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9502600B-C053-428D-8A19-8D6EB97F7AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{9502600B-C053-428D-8A19-8D6EB97F7AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{554B041A-33FE-8E49-84E8-57CB6B497A0C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53988E5A-922A-4D43-857E-3D1DAEEFC7AC}"/>
+    <workbookView xWindow="-120" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{53988E5A-922A-4D43-857E-3D1DAEEFC7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="527">
   <si>
     <t>Variable Name</t>
   </si>
@@ -720,9 +720,6 @@
     <t>calculate_ME_requirement</t>
   </si>
   <si>
-    <t>Trg_Meuse</t>
-  </si>
-  <si>
     <t>Trg_MEuse</t>
   </si>
   <si>
@@ -837,9 +834,6 @@
     <t>Scrf_NP_g</t>
   </si>
   <si>
-    <t>Scrf_MPUse_g_Trg</t>
-  </si>
-  <si>
     <t>Ur_Nend_g</t>
   </si>
   <si>
@@ -873,9 +867,6 @@
     <t>Trg_Mlk_NP_g</t>
   </si>
   <si>
-    <t>Mlk_MPUse_g_Trg</t>
-  </si>
-  <si>
     <t>calculate_Mlk_Fat_g</t>
   </si>
   <si>
@@ -1515,9 +1506,6 @@
     <t>Metabolizable energy for frame gain, Mcal/d</t>
   </si>
   <si>
-    <t>An_Megain</t>
-  </si>
-  <si>
     <t>Metabolizalbe energy for frame and reserve gain, Mcal/d</t>
   </si>
   <si>
@@ -1612,6 +1600,24 @@
   </si>
   <si>
     <t>Net energy allowable milk production, Mcal/d</t>
+  </si>
+  <si>
+    <t>Mlk_MPuse_g_Trg</t>
+  </si>
+  <si>
+    <t>Scrf_MPuse_g_Trg</t>
+  </si>
+  <si>
+    <t>milk_fat</t>
+  </si>
+  <si>
+    <t>Predicted milk fat content, %</t>
+  </si>
+  <si>
+    <t>milk_protein</t>
+  </si>
+  <si>
+    <t>Predicted milk protein content, %</t>
   </si>
 </sst>
 </file>
@@ -1688,17 +1694,17 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2116,28 +2122,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CBC222-87FC-4995-A1F1-81937BD3329A}">
   <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F233" sqref="F233:F234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -2146,21 +2152,21 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
@@ -2169,18 +2175,18 @@
       <c r="E2">
         <v>2886</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D3" t="s">
@@ -2189,18 +2195,18 @@
       <c r="E3">
         <v>386</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D4" t="s">
@@ -2209,18 +2215,18 @@
       <c r="E4">
         <v>389</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
@@ -2229,18 +2235,18 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
@@ -2249,18 +2255,18 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -2269,18 +2275,18 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
@@ -2289,18 +2295,18 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
@@ -2309,18 +2315,18 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
@@ -2329,18 +2335,18 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
@@ -2349,18 +2355,18 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
@@ -2369,18 +2375,18 @@
       <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
@@ -2389,18 +2395,18 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
@@ -2409,18 +2415,18 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
@@ -2429,18 +2435,18 @@
       <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
@@ -2449,18 +2455,18 @@
       <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
@@ -2469,18 +2475,18 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
@@ -2489,18 +2495,18 @@
       <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
@@ -2509,18 +2515,18 @@
       <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
@@ -2529,18 +2535,18 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
@@ -2549,18 +2555,18 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
@@ -2569,18 +2575,18 @@
       <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
@@ -2589,18 +2595,18 @@
       <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
@@ -2609,18 +2615,18 @@
       <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
@@ -2629,18 +2635,18 @@
       <c r="E25" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
@@ -2649,18 +2655,18 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
@@ -2669,7 +2675,7 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G27" t="str">
@@ -2677,14 +2683,14 @@
         <v>Fd_NDF_kg/d</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
@@ -2693,18 +2699,18 @@
       <c r="E28">
         <v>245</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
@@ -2713,18 +2719,18 @@
       <c r="E29" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
@@ -2733,18 +2739,18 @@
       <c r="E30" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
@@ -2753,18 +2759,18 @@
       <c r="E31" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
@@ -2773,18 +2779,18 @@
       <c r="E32" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
@@ -2793,18 +2799,18 @@
       <c r="E33" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
@@ -2813,18 +2819,18 @@
       <c r="E34" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
@@ -2833,18 +2839,18 @@
       <c r="E35" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
@@ -2853,18 +2859,18 @@
       <c r="E36" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
@@ -2873,18 +2879,18 @@
       <c r="E37">
         <v>458</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
@@ -2893,18 +2899,18 @@
       <c r="E38">
         <v>468</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
@@ -2913,18 +2919,18 @@
       <c r="E39">
         <v>1007</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="s">
@@ -2933,18 +2939,18 @@
       <c r="E40">
         <v>1010</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
@@ -2953,18 +2959,18 @@
       <c r="E41" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
@@ -2973,18 +2979,18 @@
       <c r="E42" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
@@ -2993,18 +2999,18 @@
       <c r="E43" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
@@ -3013,18 +3019,18 @@
       <c r="E44" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
@@ -3033,18 +3039,18 @@
       <c r="E45">
         <v>446</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
@@ -3053,18 +3059,18 @@
       <c r="E46" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D47" t="s">
@@ -3073,18 +3079,18 @@
       <c r="E47" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="s">
@@ -3093,18 +3099,18 @@
       <c r="E48" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="s">
@@ -3113,18 +3119,18 @@
       <c r="E49" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="s">
@@ -3133,18 +3139,18 @@
       <c r="E50" t="s">
         <v>84</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="s">
@@ -3153,18 +3159,18 @@
       <c r="E51">
         <v>1259</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="s">
@@ -3173,18 +3179,18 @@
       <c r="E52">
         <v>447</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="s">
@@ -3193,18 +3199,18 @@
       <c r="E53">
         <v>485</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="s">
@@ -3213,18 +3219,18 @@
       <c r="E54" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D55" t="s">
@@ -3233,18 +3239,18 @@
       <c r="E55" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="s">
@@ -3253,18 +3259,18 @@
       <c r="E56" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
@@ -3273,18 +3279,18 @@
       <c r="E57">
         <v>1262</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
@@ -3293,18 +3299,18 @@
       <c r="E58">
         <v>1268</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="s">
@@ -3313,18 +3319,18 @@
       <c r="E59">
         <v>1101</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D60" t="s">
@@ -3333,22 +3339,22 @@
       <c r="E60">
         <v>662</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>365</v>
+      <c r="F60" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="G60" t="str">
         <f>B54</f>
         <v>Fd_ForNDF</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D61" t="s">
@@ -3357,18 +3363,18 @@
       <c r="E61">
         <v>1108</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D62" t="s">
@@ -3377,18 +3383,18 @@
       <c r="E62">
         <v>975</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D63" t="s">
@@ -3397,18 +3403,18 @@
       <c r="E63">
         <v>995</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D64" t="s">
@@ -3417,22 +3423,22 @@
       <c r="E64" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>381</v>
+      <c r="F64" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="G64" t="str">
         <f>B59</f>
         <v>Dt_RDPIn</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D65" t="s">
@@ -3441,18 +3447,18 @@
       <c r="E65">
         <v>987</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D66" t="s">
@@ -3461,18 +3467,18 @@
       <c r="E66">
         <v>997</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D67" t="s">
@@ -3481,18 +3487,18 @@
       <c r="E67">
         <v>1124</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D68" t="s">
@@ -3501,18 +3507,18 @@
       <c r="E68">
         <v>1125</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D69" t="s">
@@ -3521,18 +3527,18 @@
       <c r="E69">
         <v>1126</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D70" t="s">
@@ -3541,18 +3547,18 @@
       <c r="E70">
         <v>647</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D71" t="s">
@@ -3561,18 +3567,18 @@
       <c r="E71" t="s">
         <v>116</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D72" t="s">
@@ -3581,18 +3587,18 @@
       <c r="E72">
         <v>1147</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D73" t="s">
@@ -3601,18 +3607,18 @@
       <c r="E73">
         <v>2116</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D74" t="s">
@@ -3621,18 +3627,18 @@
       <c r="E74">
         <v>1163</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D75" t="s">
@@ -3641,103 +3647,103 @@
       <c r="E75">
         <v>1166</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D76" t="s">
         <v>97</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D77" t="s">
         <v>97</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D78" t="s">
         <v>97</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D79" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D80" t="s">
         <v>97</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D81" t="s">
@@ -3746,18 +3752,18 @@
       <c r="E81" t="s">
         <v>130</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D82" t="s">
@@ -3766,18 +3772,18 @@
       <c r="E82" t="s">
         <v>132</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D83" t="s">
@@ -3786,35 +3792,35 @@
       <c r="E83" t="s">
         <v>134</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D84" t="s">
         <v>125</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D85" t="s">
@@ -3823,69 +3829,69 @@
       <c r="E85" t="s">
         <v>137</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D86" t="s">
         <v>125</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D87" t="s">
         <v>125</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D88" t="s">
         <v>125</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D89" t="s">
@@ -3894,35 +3900,35 @@
       <c r="E89">
         <v>2311</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D90" t="s">
         <v>97</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D91" t="s">
@@ -3931,18 +3937,18 @@
       <c r="E91">
         <v>2322</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D92" t="s">
@@ -3951,35 +3957,35 @@
       <c r="E92" t="s">
         <v>146</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>97</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D94" t="s">
@@ -3988,35 +3994,35 @@
       <c r="E94" t="s">
         <v>148</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D95" t="s">
         <v>97</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D96" t="s">
@@ -4025,35 +4031,35 @@
       <c r="E96">
         <v>1056</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D97" t="s">
         <v>97</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D98" t="s">
@@ -4062,35 +4068,35 @@
       <c r="E98">
         <v>1060</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D99" t="s">
         <v>97</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D100" t="s">
@@ -4099,18 +4105,18 @@
       <c r="E100">
         <v>1063</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D101" t="s">
@@ -4119,18 +4125,18 @@
       <c r="E101">
         <v>1353</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D102" t="s">
@@ -4139,18 +4145,18 @@
       <c r="E102">
         <v>1030</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D103" t="s">
@@ -4159,18 +4165,18 @@
       <c r="E103">
         <v>1032</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D104" t="s">
@@ -4179,18 +4185,18 @@
       <c r="E104">
         <v>1033</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D105" t="s">
@@ -4199,18 +4205,18 @@
       <c r="E105">
         <v>1351</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D106" t="s">
@@ -4219,18 +4225,18 @@
       <c r="E106">
         <v>1007</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D107" t="s">
@@ -4239,18 +4245,18 @@
       <c r="E107" t="s">
         <v>164</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D108" t="s">
@@ -4259,18 +4265,18 @@
       <c r="E108">
         <v>1352</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D109" t="s">
@@ -4279,18 +4285,18 @@
       <c r="E109">
         <v>1099</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D110" t="s">
@@ -4299,18 +4305,18 @@
       <c r="E110">
         <v>1198</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D111" t="s">
@@ -4319,52 +4325,52 @@
       <c r="E111">
         <v>1166</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D112" t="s">
         <v>97</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D113" t="s">
         <v>97</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D114" t="s">
@@ -4373,18 +4379,18 @@
       <c r="E114">
         <v>1196</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D115" t="s">
@@ -4393,18 +4399,18 @@
       <c r="E115">
         <v>1187</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D116" t="s">
@@ -4413,18 +4419,18 @@
       <c r="E116">
         <v>1190</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D117" t="s">
@@ -4433,18 +4439,18 @@
       <c r="E117">
         <v>1202</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D118" t="s">
@@ -4453,35 +4459,35 @@
       <c r="E118">
         <v>1222</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D119" t="s">
         <v>97</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D120" t="s">
@@ -4490,18 +4496,18 @@
       <c r="E120" t="s">
         <v>178</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D121" t="s">
@@ -4510,18 +4516,18 @@
       <c r="E121">
         <v>1356</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D122" t="s">
@@ -4530,35 +4536,35 @@
       <c r="E122">
         <v>1309</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D123" t="s">
         <v>181</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D124" t="s">
@@ -4567,35 +4573,35 @@
       <c r="E124">
         <v>1367</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D125" t="s">
         <v>97</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D126" t="s">
@@ -4604,18 +4610,18 @@
       <c r="E126">
         <v>1769</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D127" t="s">
@@ -4624,35 +4630,35 @@
       <c r="E127">
         <v>1182</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D128" t="s">
         <v>97</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D129" t="s">
@@ -4661,18 +4667,18 @@
       <c r="E129">
         <v>1236</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D130" t="s">
@@ -4681,18 +4687,18 @@
       <c r="E130">
         <v>1238</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D131" t="s">
@@ -4701,35 +4707,35 @@
       <c r="E131">
         <v>1771</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D132" t="s">
         <v>97</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D133" t="s">
@@ -4738,35 +4744,35 @@
       <c r="E133" t="s">
         <v>194</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D134" t="s">
         <v>97</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D135" t="s">
@@ -4775,18 +4781,18 @@
       <c r="E135">
         <v>2184</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D136" t="s">
@@ -4795,35 +4801,35 @@
       <c r="E136" t="s">
         <v>199</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D137" t="s">
         <v>97</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D138" t="s">
@@ -4832,18 +4838,18 @@
       <c r="E138">
         <v>1965</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D139" t="s">
@@ -4852,69 +4858,69 @@
       <c r="E139">
         <v>2213</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D140" t="s">
         <v>97</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D141" t="s">
         <v>97</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D142" t="s">
         <v>97</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D143" t="s">
@@ -4923,18 +4929,18 @@
       <c r="E143">
         <v>2460</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D144" t="s">
@@ -4943,18 +4949,18 @@
       <c r="E144">
         <v>2461</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D145" t="s">
@@ -4963,18 +4969,18 @@
       <c r="E145">
         <v>2467</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D146" t="s">
@@ -4983,18 +4989,18 @@
       <c r="E146" t="s">
         <v>211</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D147" t="s">
@@ -5003,35 +5009,35 @@
       <c r="E147">
         <v>2468</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D148" t="s">
         <v>97</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D149" t="s">
@@ -5040,18 +5046,18 @@
       <c r="E149">
         <v>2475</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D150" t="s">
@@ -5060,52 +5066,52 @@
       <c r="E150">
         <v>2477</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D151" t="s">
         <v>97</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D152" t="s">
         <v>97</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D153" t="s">
@@ -5114,18 +5120,18 @@
       <c r="E153">
         <v>2366</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D154" t="s">
@@ -5134,18 +5140,18 @@
       <c r="E154">
         <v>2367</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D155" t="s">
@@ -5154,18 +5160,18 @@
       <c r="E155">
         <v>2742</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D156" t="s">
@@ -5174,35 +5180,35 @@
       <c r="E156">
         <v>2748</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D157" t="s">
         <v>222</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D158" t="s">
@@ -5211,58 +5217,58 @@
       <c r="E158">
         <v>2762</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="4" t="s">
         <v>224</v>
       </c>
       <c r="E159">
         <v>2763</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="5" t="s">
         <v>226</v>
       </c>
       <c r="D160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E160">
         <v>2923</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C161" s="6" t="s">
+      <c r="B161" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D161" t="s">
@@ -5271,18 +5277,18 @@
       <c r="E161">
         <v>2781</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C162" s="6" t="s">
+      <c r="B162" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D162" t="s">
@@ -5291,18 +5297,18 @@
       <c r="E162">
         <v>223</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C163" s="6" t="s">
+      <c r="B163" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D163" t="s">
@@ -5311,18 +5317,18 @@
       <c r="E163">
         <v>2793</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C164" s="6" t="s">
+      <c r="B164" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D164" t="s">
@@ -5331,18 +5337,18 @@
       <c r="E164">
         <v>2795</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C165" s="6" t="s">
+      <c r="B165" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D165" t="s">
@@ -5351,18 +5357,18 @@
       <c r="E165">
         <v>2796</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C166" s="6" t="s">
+      <c r="B166" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D166" t="s">
@@ -5371,18 +5377,18 @@
       <c r="E166">
         <v>2797</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C167" s="6" t="s">
+      <c r="B167" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D167" t="s">
@@ -5391,39 +5397,39 @@
       <c r="E167">
         <v>2801</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C168" s="6" t="s">
+      <c r="B168" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>237</v>
+      <c r="D168" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E168">
         <v>2844</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>238</v>
+      <c r="C169" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D169" t="s">
         <v>97</v>
@@ -5431,7 +5437,7 @@
       <c r="E169" t="s">
         <v>211</v>
       </c>
-      <c r="F169" s="4" t="s">
+      <c r="F169" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G169" t="str">
@@ -5439,15 +5445,15 @@
         <v>Rsrv_Gain_empty</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C170" s="6" t="s">
+      <c r="B170" s="4" t="s">
         <v>238</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D170" t="s">
         <v>97</v>
@@ -5455,19 +5461,19 @@
       <c r="E170">
         <v>2453</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>238</v>
+      <c r="C171" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D171" t="s">
         <v>97</v>
@@ -5475,19 +5481,19 @@
       <c r="E171">
         <v>2458</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>238</v>
+      <c r="B172" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D172" t="s">
         <v>97</v>
@@ -5495,19 +5501,19 @@
       <c r="E172">
         <v>2470</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>238</v>
+      <c r="B173" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D173" t="s">
         <v>97</v>
@@ -5515,39 +5521,39 @@
       <c r="E173">
         <v>2866</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D174" t="s">
+        <v>97</v>
+      </c>
+      <c r="E174" t="s">
         <v>242</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D174" t="s">
-        <v>97</v>
-      </c>
-      <c r="E174" t="s">
-        <v>243</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>238</v>
+      <c r="B175" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D175" t="s">
         <v>97</v>
@@ -5555,19 +5561,19 @@
       <c r="E175">
         <v>2871</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>238</v>
+      <c r="B176" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D176" t="s">
         <v>97</v>
@@ -5575,19 +5581,19 @@
       <c r="E176">
         <v>2448</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C177" s="6" t="s">
-        <v>238</v>
+      <c r="C177" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D177" t="s">
         <v>97</v>
@@ -5595,7 +5601,7 @@
       <c r="E177">
         <v>2434</v>
       </c>
-      <c r="F177" s="4" t="s">
+      <c r="F177" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G177" t="str">
@@ -5603,15 +5609,15 @@
         <v>Frm_Gain</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>238</v>
+      <c r="C178" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D178" t="s">
         <v>97</v>
@@ -5619,7 +5625,7 @@
       <c r="E178">
         <v>2439</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="F178" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G178" t="str">
@@ -5627,15 +5633,15 @@
         <v>Frm_Gain_empty</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>238</v>
+      <c r="B179" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D179" t="s">
         <v>97</v>
@@ -5643,19 +5649,19 @@
       <c r="E179">
         <v>2452</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>238</v>
+      <c r="C180" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D180" t="s">
         <v>97</v>
@@ -5663,7 +5669,7 @@
       <c r="E180">
         <v>2459</v>
       </c>
-      <c r="F180" s="4" t="s">
+      <c r="F180" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G180" t="str">
@@ -5671,15 +5677,15 @@
         <v>NPGain_FrmGain</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>238</v>
+      <c r="C181" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D181" t="s">
         <v>97</v>
@@ -5687,19 +5693,19 @@
       <c r="E181">
         <v>2460</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>238</v>
+      <c r="B182" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D182" t="s">
         <v>97</v>
@@ -5707,19 +5713,19 @@
       <c r="E182">
         <v>2463</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>238</v>
+      <c r="B183" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D183" t="s">
         <v>97</v>
@@ -5727,19 +5733,19 @@
       <c r="E183">
         <v>2867</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>238</v>
+      <c r="B184" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D184" t="s">
         <v>97</v>
@@ -5747,39 +5753,39 @@
       <c r="E184">
         <v>2872</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F184" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>250</v>
+      <c r="B185" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="E185">
         <v>2873</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F185" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C186" s="6" t="s">
+      <c r="B186" s="4" t="s">
         <v>251</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="D186" t="s">
         <v>97</v>
@@ -5787,19 +5793,19 @@
       <c r="E186">
         <v>2360</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F186" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>251</v>
+      <c r="B187" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="D187" t="s">
         <v>97</v>
@@ -5807,39 +5813,39 @@
       <c r="E187">
         <v>2839</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>254</v>
+      <c r="B188" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="E188">
         <v>2859</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>255</v>
+      <c r="C189" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="D189" t="s">
         <v>97</v>
@@ -5847,22 +5853,22 @@
       <c r="E189">
         <v>2886</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>345</v>
+      <c r="F189" t="s">
+        <v>342</v>
       </c>
       <c r="G189" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C190" s="6" t="s">
+      <c r="B190" s="4" t="s">
         <v>255</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="D190" t="s">
         <v>97</v>
@@ -5870,67 +5876,67 @@
       <c r="E190">
         <v>2888</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F190" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>257</v>
+      <c r="B191" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="E191">
         <v>2889</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C192" s="6" t="s">
+      <c r="B192" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="C192" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="D192" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E192">
         <v>2680</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F192" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C193" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D193" t="s">
+        <v>97</v>
+      </c>
+      <c r="E193" t="s">
         <v>260</v>
       </c>
-      <c r="D193" t="s">
-        <v>97</v>
-      </c>
-      <c r="E193" t="s">
-        <v>261</v>
-      </c>
-      <c r="F193" s="4" t="s">
+      <c r="F193" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G193" t="str">
@@ -5938,15 +5944,15 @@
         <v>An_NDF</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C194" s="6" t="s">
-        <v>260</v>
+      <c r="C194" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D194" t="s">
         <v>97</v>
@@ -5954,7 +5960,7 @@
       <c r="E194">
         <v>1186</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F194" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G194" t="str">
@@ -5962,15 +5968,15 @@
         <v>Fe_CPend_g</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>260</v>
+      <c r="C195" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D195" t="s">
         <v>97</v>
@@ -5978,7 +5984,7 @@
       <c r="E195">
         <v>1189</v>
       </c>
-      <c r="F195" s="4" t="s">
+      <c r="F195" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G195" t="str">
@@ -5986,15 +5992,15 @@
         <v>Fe_CPend</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>260</v>
+      <c r="B196" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D196" t="s">
         <v>97</v>
@@ -6002,19 +6008,19 @@
       <c r="E196">
         <v>1191</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>260</v>
+      <c r="B197" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D197" t="s">
         <v>97</v>
@@ -6022,19 +6028,19 @@
       <c r="E197">
         <v>1192</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F197" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>260</v>
+      <c r="B198" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D198" t="s">
         <v>97</v>
@@ -6042,19 +6048,19 @@
       <c r="E198">
         <v>2668</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>260</v>
+      <c r="C199" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D199" t="s">
         <v>97</v>
@@ -6062,7 +6068,7 @@
       <c r="E199">
         <v>1964</v>
       </c>
-      <c r="F199" s="4" t="s">
+      <c r="F199" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G199" t="str">
@@ -6070,15 +6076,15 @@
         <v>Scrf_CP_g</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>260</v>
+      <c r="B200" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D200" t="s">
         <v>97</v>
@@ -6086,19 +6092,19 @@
       <c r="E200">
         <v>1966</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>260</v>
+      <c r="B201" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D201" t="s">
         <v>97</v>
@@ -6106,19 +6112,19 @@
       <c r="E201">
         <v>2670</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>260</v>
+      <c r="B202" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D202" t="s">
         <v>97</v>
@@ -6126,19 +6132,19 @@
       <c r="E202">
         <v>2029</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>260</v>
+      <c r="B203" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D203" t="s">
         <v>97</v>
@@ -6146,19 +6152,19 @@
       <c r="E203">
         <v>2030</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F203" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>260</v>
+      <c r="B204" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D204" t="s">
         <v>97</v>
@@ -6166,39 +6172,39 @@
       <c r="E204">
         <v>2672</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>260</v>
+      <c r="B205" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D205" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E205">
         <v>2679</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F205" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>271</v>
+      <c r="C206" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D206" t="s">
         <v>97</v>
@@ -6206,7 +6212,7 @@
       <c r="E206">
         <v>2458</v>
       </c>
-      <c r="F206" s="4" t="s">
+      <c r="F206" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G206" t="str">
@@ -6214,15 +6220,15 @@
         <v>CPGain_FrmGain</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>271</v>
+      <c r="C207" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D207" t="s">
         <v>97</v>
@@ -6230,7 +6236,7 @@
       <c r="E207">
         <v>2459</v>
       </c>
-      <c r="F207" s="4" t="s">
+      <c r="F207" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G207" t="str">
@@ -6238,15 +6244,15 @@
         <v>NPGain_FrmGain</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>271</v>
+      <c r="C208" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D208" t="s">
         <v>97</v>
@@ -6254,7 +6260,7 @@
       <c r="E208">
         <v>2434</v>
       </c>
-      <c r="F208" s="4" t="s">
+      <c r="F208" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G208" t="str">
@@ -6262,15 +6268,15 @@
         <v>Frm_Gain</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C209" s="6" t="s">
-        <v>271</v>
+      <c r="C209" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D209" t="s">
         <v>97</v>
@@ -6278,7 +6284,7 @@
       <c r="E209">
         <v>2439</v>
       </c>
-      <c r="F209" s="4" t="s">
+      <c r="F209" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G209" t="str">
@@ -6286,15 +6292,15 @@
         <v>Frm_Gain_empty</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>271</v>
+      <c r="C210" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D210" t="s">
         <v>97</v>
@@ -6302,7 +6308,7 @@
       <c r="E210">
         <v>2460</v>
       </c>
-      <c r="F210" s="4" t="s">
+      <c r="F210" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G210" t="str">
@@ -6310,15 +6316,15 @@
         <v>Frm_NPgain</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="6" t="s">
-        <v>271</v>
+      <c r="C211" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D211" t="s">
         <v>97</v>
@@ -6326,7 +6332,7 @@
       <c r="E211">
         <v>2467</v>
       </c>
-      <c r="F211" s="4" t="s">
+      <c r="F211" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G211" t="str">
@@ -6334,15 +6340,15 @@
         <v>NPGain_RsrvGain</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C212" s="6" t="s">
-        <v>271</v>
+      <c r="C212" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D212" t="s">
         <v>97</v>
@@ -6350,7 +6356,7 @@
       <c r="E212" t="s">
         <v>211</v>
       </c>
-      <c r="F212" s="4" t="s">
+      <c r="F212" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G212" t="str">
@@ -6358,15 +6364,15 @@
         <v>Rsrv_Gain_empty</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>271</v>
+      <c r="C213" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D213" t="s">
         <v>97</v>
@@ -6374,7 +6380,7 @@
       <c r="E213">
         <v>2468</v>
       </c>
-      <c r="F213" s="4" t="s">
+      <c r="F213" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G213" t="str">
@@ -6382,15 +6388,15 @@
         <v>Rsrv_NPgain</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>271</v>
+      <c r="C214" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D214" t="s">
         <v>97</v>
@@ -6398,7 +6404,7 @@
       <c r="E214">
         <v>2473</v>
       </c>
-      <c r="F214" s="4" t="s">
+      <c r="F214" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G214" t="str">
@@ -6406,15 +6412,15 @@
         <v>Body_NPgain</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>271</v>
+      <c r="B215" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D215" t="s">
         <v>97</v>
@@ -6422,39 +6428,39 @@
       <c r="E215">
         <v>2475</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C216" s="6" t="s">
+      <c r="B216" s="4" t="s">
         <v>271</v>
       </c>
+      <c r="C216" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="D216" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E216">
         <v>2675</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F216" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C217" s="6" t="s">
-        <v>274</v>
+      <c r="C217" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="D217" t="s">
         <v>97</v>
@@ -6462,7 +6468,7 @@
       <c r="E217">
         <v>2363</v>
       </c>
-      <c r="F217" s="4" t="s">
+      <c r="F217" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G217" t="str">
@@ -6470,15 +6476,15 @@
         <v>Gest_NCPgain_g</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>274</v>
+      <c r="C218" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="D218" t="s">
         <v>97</v>
@@ -6486,7 +6492,7 @@
       <c r="E218">
         <v>2364</v>
       </c>
-      <c r="F218" s="4" t="s">
+      <c r="F218" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G218" t="str">
@@ -6494,15 +6500,15 @@
         <v>Gest_NPgain_g</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C219" s="6" t="s">
-        <v>274</v>
+      <c r="C219" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="D219" t="s">
         <v>97</v>
@@ -6510,7 +6516,7 @@
       <c r="E219">
         <v>2365</v>
       </c>
-      <c r="F219" s="4" t="s">
+      <c r="F219" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G219" t="str">
@@ -6518,35 +6524,35 @@
         <v>Gest_NPuse_g</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>274</v>
+      <c r="B220" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="D220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E220">
         <v>2676</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F220" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>276</v>
+      <c r="B221" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="D221" t="s">
         <v>97</v>
@@ -6554,76 +6560,76 @@
       <c r="E221">
         <v>2205</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F221" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>276</v>
+      <c r="B222" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="D222" t="s">
-        <v>278</v>
+        <v>521</v>
       </c>
       <c r="E222">
         <v>2677</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>279</v>
+      <c r="B223" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="D223" t="s">
         <v>97</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F223" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C224" s="6" t="s">
+      <c r="B224" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D224" t="s">
+        <v>278</v>
+      </c>
+      <c r="E224" t="s">
         <v>279</v>
       </c>
-      <c r="D224" t="s">
-        <v>281</v>
-      </c>
-      <c r="E224" t="s">
-        <v>282</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F224" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>283</v>
+      <c r="B225" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="D225" t="s">
         <v>97</v>
@@ -6631,19 +6637,19 @@
       <c r="E225">
         <v>2210</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F225" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>283</v>
+      <c r="B226" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="D226" t="s">
         <v>97</v>
@@ -6651,39 +6657,39 @@
       <c r="E226">
         <v>2267</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F226" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C227" s="6" t="s">
+      <c r="B227" s="4" t="s">
         <v>283</v>
       </c>
+      <c r="C227" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="D227" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E227" t="s">
-        <v>287</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="F227" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>288</v>
+      <c r="B228" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="D228" t="s">
         <v>97</v>
@@ -6691,19 +6697,19 @@
       <c r="E228">
         <v>2706</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>288</v>
+      <c r="B229" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="D229" t="s">
         <v>97</v>
@@ -6711,39 +6717,39 @@
       <c r="E229">
         <v>2707</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F229" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C230" s="6" t="s">
+      <c r="B230" s="4" t="s">
         <v>288</v>
       </c>
+      <c r="C230" s="5" t="s">
+        <v>285</v>
+      </c>
       <c r="D230" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E230">
         <v>2708</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F230" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>292</v>
+      <c r="B231" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="D231" t="s">
         <v>97</v>
@@ -6751,35 +6757,47 @@
       <c r="E231">
         <v>2896</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F231" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>292</v>
+      <c r="B232" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="D232" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E232">
         <v>2897</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="F232" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>523</v>
+      </c>
+      <c r="C233" s="7"/>
+      <c r="F233" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C233" s="6"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C234" s="6"/>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>525</v>
+      </c>
+      <c r="C234" s="7"/>
+      <c r="F234" t="s">
+        <v>526</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6799,242 +6817,242 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>309</v>
-      </c>
-      <c r="C7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>312</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>314</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>315</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>318</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" t="s">
         <v>321</v>
       </c>
-      <c r="B11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="B12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>325</v>
       </c>
-      <c r="B13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" t="s">
         <v>330</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" t="s">
         <v>332</v>
       </c>
-      <c r="B16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" t="s">
         <v>334</v>
       </c>
-      <c r="B17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="s">
         <v>336</v>
       </c>
-      <c r="B18" t="s">
-        <v>330</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" t="s">
         <v>338</v>
       </c>
-      <c r="B19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" t="s">
         <v>340</v>
-      </c>
-      <c r="B20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>342</v>
-      </c>
-      <c r="B21" t="s">
-        <v>309</v>
-      </c>
-      <c r="C21" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/src/nasem_dairy/data/Variable List.xlsx
+++ b/src/nasem_dairy/data/Variable List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/innesd_uoguelph_ca/Documents/UoG/UoG Python/NASEM-Model-Python/src/nasem_dairy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/bfieguth_uoguelph_ca/Documents/NASEM-Model-Python/src/nasem_dairy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{9502600B-C053-428D-8A19-8D6EB97F7AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{554B041A-33FE-8E49-84E8-57CB6B497A0C}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{9502600B-C053-428D-8A19-8D6EB97F7AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3492CED-783E-4D6E-BEA5-10FB931CF24C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{53988E5A-922A-4D43-857E-3D1DAEEFC7AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{53988E5A-922A-4D43-857E-3D1DAEEFC7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="535">
   <si>
     <t>Variable Name</t>
   </si>
@@ -1618,6 +1618,30 @@
   </si>
   <si>
     <t>Predicted milk protein content, %</t>
+  </si>
+  <si>
+    <t>Diff_MPuse_g</t>
+  </si>
+  <si>
+    <t>An_MEIn_approx</t>
+  </si>
+  <si>
+    <t>Frm_MPUse_g_Trg</t>
+  </si>
+  <si>
+    <t>Kg_MP_NP_Trg</t>
+  </si>
+  <si>
+    <t>Min_MPuse_g</t>
+  </si>
+  <si>
+    <t>Frm_NPgain_g</t>
+  </si>
+  <si>
+    <t>Rsrv_NPgain_g</t>
+  </si>
+  <si>
+    <t>Rsrv_MPUse_g_Trg</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1704,7 +1728,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2120,23 +2143,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CBC222-87FC-4995-A1F1-81937BD3329A}">
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F233" sqref="F233:F234"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D237" sqref="D237:D243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="14.46484375" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>292</v>
       </c>
@@ -2159,7 +2182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2179,7 +2202,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2199,7 +2222,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2219,7 +2242,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2239,7 +2262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2259,7 +2282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2279,7 +2302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2299,7 +2322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2319,7 +2342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2339,7 +2362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2359,7 +2382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2379,7 +2402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2399,7 +2422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2419,7 +2442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2439,7 +2462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2459,7 +2482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2479,7 +2502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2499,7 +2522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2519,7 +2542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2539,7 +2562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2559,7 +2582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2579,7 +2602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2599,7 +2622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2619,7 +2642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2639,7 +2662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2659,7 +2682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2683,7 +2706,7 @@
         <v>Fd_NDF_kg/d</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2703,7 +2726,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2723,7 +2746,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2743,7 +2766,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2763,7 +2786,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2783,7 +2806,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2803,7 +2826,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2823,7 +2846,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2843,7 +2866,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2863,7 +2886,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2883,7 +2906,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2903,7 +2926,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2923,7 +2946,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2943,7 +2966,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2963,7 +2986,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2983,7 +3006,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3003,7 +3026,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3023,7 +3046,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3043,7 +3066,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3063,7 +3086,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3083,7 +3106,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3103,7 +3126,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3123,7 +3146,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3143,7 +3166,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3163,7 +3186,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3183,7 +3206,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3203,7 +3226,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3223,7 +3246,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3243,7 +3266,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3263,7 +3286,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3283,7 +3306,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3303,7 +3326,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3323,7 +3346,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3347,7 +3370,7 @@
         <v>Fd_ForNDF</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3367,7 +3390,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3387,7 +3410,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3407,7 +3430,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3431,7 +3454,7 @@
         <v>Dt_RDPIn</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3451,7 +3474,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3471,7 +3494,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3491,7 +3514,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3511,7 +3534,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3531,7 +3554,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3551,7 +3574,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3571,7 +3594,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3591,7 +3614,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3611,7 +3634,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3631,7 +3654,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3651,7 +3674,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3668,7 +3691,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3685,7 +3708,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3702,7 +3725,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3719,7 +3742,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3736,7 +3759,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3756,7 +3779,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3776,7 +3799,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3796,7 +3819,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3813,7 +3836,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3833,7 +3856,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3850,7 +3873,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3867,7 +3890,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3884,7 +3907,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3904,7 +3927,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3921,7 +3944,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3941,7 +3964,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3961,7 +3984,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3978,7 +4001,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3998,7 +4021,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4015,7 +4038,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4035,7 +4058,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4052,7 +4075,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4072,7 +4095,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4089,7 +4112,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4109,7 +4132,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4129,7 +4152,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4149,7 +4172,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4169,7 +4192,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4189,7 +4212,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4209,7 +4232,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4229,7 +4252,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4249,7 +4272,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4269,7 +4292,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4289,7 +4312,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4309,7 +4332,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4329,7 +4352,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4346,7 +4369,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4363,7 +4386,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4383,7 +4406,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4403,7 +4426,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4423,7 +4446,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4443,7 +4466,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4463,7 +4486,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4480,7 +4503,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4500,7 +4523,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4520,7 +4543,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4540,7 +4563,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4557,7 +4580,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4577,7 +4600,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4594,7 +4617,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4614,7 +4637,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4634,7 +4657,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4651,7 +4674,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4671,7 +4694,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4691,7 +4714,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4711,7 +4734,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4728,7 +4751,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4748,7 +4771,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4765,7 +4788,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4785,7 +4808,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4805,7 +4828,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4822,7 +4845,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4842,7 +4865,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4862,7 +4885,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4879,7 +4902,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4896,7 +4919,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4913,7 +4936,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4933,7 +4956,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4953,7 +4976,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4973,7 +4996,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4993,7 +5016,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5013,7 +5036,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5030,7 +5053,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5050,7 +5073,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5070,7 +5093,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5087,7 +5110,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5104,7 +5127,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5124,7 +5147,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5144,7 +5167,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5164,7 +5187,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5184,7 +5207,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5201,7 +5224,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5221,7 +5244,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5241,7 +5264,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5261,7 +5284,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5281,7 +5304,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5301,7 +5324,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5321,7 +5344,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5341,7 +5364,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5361,7 +5384,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5381,7 +5404,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5401,7 +5424,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5421,7 +5444,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5445,7 +5468,7 @@
         <v>Rsrv_Gain_empty</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5465,7 +5488,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5485,7 +5508,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5505,7 +5528,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5525,7 +5548,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5545,7 +5568,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5565,7 +5588,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5585,7 +5608,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5609,7 +5632,7 @@
         <v>Frm_Gain</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5633,7 +5656,7 @@
         <v>Frm_Gain_empty</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5653,7 +5676,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5677,7 +5700,7 @@
         <v>NPGain_FrmGain</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5697,7 +5720,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5717,7 +5740,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5737,7 +5760,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5757,7 +5780,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5777,7 +5800,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5797,7 +5820,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5817,7 +5840,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5837,7 +5860,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5860,7 +5883,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5880,7 +5903,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5900,7 +5923,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5920,7 +5943,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5944,7 +5967,7 @@
         <v>An_NDF</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5968,7 +5991,7 @@
         <v>Fe_CPend_g</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5992,7 +6015,7 @@
         <v>Fe_CPend</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6012,7 +6035,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6032,7 +6055,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6052,7 +6075,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6076,7 +6099,7 @@
         <v>Scrf_CP_g</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6096,7 +6119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6116,7 +6139,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6136,7 +6159,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6156,7 +6179,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6176,7 +6199,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6196,7 +6219,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6220,7 +6243,7 @@
         <v>CPGain_FrmGain</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6244,7 +6267,7 @@
         <v>NPGain_FrmGain</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6268,7 +6291,7 @@
         <v>Frm_Gain</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6292,7 +6315,7 @@
         <v>Frm_Gain_empty</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6316,7 +6339,7 @@
         <v>Frm_NPgain</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6340,7 +6363,7 @@
         <v>NPGain_RsrvGain</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6364,7 +6387,7 @@
         <v>Rsrv_Gain_empty</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6388,7 +6411,7 @@
         <v>Rsrv_NPgain</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6412,7 +6435,7 @@
         <v>Body_NPgain</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6432,7 +6455,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6452,7 +6475,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6476,7 +6499,7 @@
         <v>Gest_NCPgain_g</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6500,7 +6523,7 @@
         <v>Gest_NPgain_g</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6524,7 +6547,7 @@
         <v>Gest_NPuse_g</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6544,7 +6567,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6564,7 +6587,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6584,7 +6607,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6601,7 +6624,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6621,7 +6644,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6641,7 +6664,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6661,7 +6684,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6681,7 +6704,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6701,7 +6724,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6721,7 +6744,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6741,7 +6764,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6761,7 +6784,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6781,28 +6804,158 @@
         <v>520</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B233" t="s">
         <v>523</v>
       </c>
-      <c r="C233" s="7"/>
       <c r="F233" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B234" t="s">
         <v>525</v>
       </c>
-      <c r="C234" s="7"/>
       <c r="F234" t="s">
         <v>526</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>232</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D235" t="s">
+        <v>97</v>
+      </c>
+      <c r="E235">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>233</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D236" t="s">
+        <v>97</v>
+      </c>
+      <c r="E236">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>234</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D237" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>235</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D238" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>236</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D239" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>237</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D240" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>238</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D241" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>239</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D242" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>240</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D243" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -6817,14 +6970,14 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="67.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>293</v>
       </c>
@@ -6835,7 +6988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -6846,7 +6999,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -6857,7 +7010,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -6868,7 +7021,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -6879,7 +7032,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>301</v>
       </c>
@@ -6890,7 +7043,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>302</v>
       </c>
@@ -6901,7 +7054,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>309</v>
       </c>
@@ -6912,7 +7065,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>311</v>
       </c>
@@ -6923,7 +7076,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -6934,7 +7087,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>318</v>
       </c>
@@ -6945,7 +7098,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>320</v>
       </c>
@@ -6956,7 +7109,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>322</v>
       </c>
@@ -6967,7 +7120,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -6978,7 +7131,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>325</v>
       </c>
@@ -6989,7 +7142,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>329</v>
       </c>
@@ -7000,7 +7153,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -7011,7 +7164,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>333</v>
       </c>
@@ -7022,7 +7175,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>335</v>
       </c>
@@ -7033,7 +7186,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>337</v>
       </c>
@@ -7044,7 +7197,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>339</v>
       </c>

--- a/src/nasem_dairy/data/Variable List.xlsx
+++ b/src/nasem_dairy/data/Variable List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/bfieguth_uoguelph_ca/Documents/NASEM-Model-Python/src/nasem_dairy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braeden\OneDrive - University of Guelph\NASEM-Model-Python\src\nasem_dairy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{9502600B-C053-428D-8A19-8D6EB97F7AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3492CED-783E-4D6E-BEA5-10FB931CF24C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7F192A-A044-42C7-8DE1-AA521F9111D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{53988E5A-922A-4D43-857E-3D1DAEEFC7AC}"/>
+    <workbookView xWindow="-28920" yWindow="810" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{53988E5A-922A-4D43-857E-3D1DAEEFC7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="538">
   <si>
     <t>Variable Name</t>
   </si>
@@ -1642,6 +1642,15 @@
   </si>
   <si>
     <t>Rsrv_MPUse_g_Trg</t>
+  </si>
+  <si>
+    <t>An_PhysState</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>Lactating Cow, Heifer, Dry Cow or Calf</t>
   </si>
 </sst>
 </file>
@@ -1835,8 +1844,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80C4780E-C903-42C8-A8A5-844980E5F27B}" name="Table2" displayName="Table2" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21" xr:uid="{80C4780E-C903-42C8-A8A5-844980E5F27B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80C4780E-C903-42C8-A8A5-844980E5F27B}" name="Table2" displayName="Table2" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{80C4780E-C903-42C8-A8A5-844980E5F27B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B4C59711-313F-4930-B87F-432F2876F0BC}" name="Name"/>
     <tableColumn id="2" xr3:uid="{A4544BC0-902D-47F2-AB54-0B1C12C8AD1C}" name="Units"/>
@@ -2145,21 +2154,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CBC222-87FC-4995-A1F1-81937BD3329A}">
   <dimension ref="A1:G243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D237" sqref="D237:D243"/>
+    <sheetView topLeftCell="A238" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F241" sqref="F241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.46484375" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.46484375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>292</v>
       </c>
@@ -2182,7 +2191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2202,7 +2211,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2222,7 +2231,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2262,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2282,7 +2291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2302,7 +2311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2342,7 +2351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2362,7 +2371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2482,7 +2491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2502,7 +2511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2522,7 +2531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2562,7 +2571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2582,7 +2591,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2602,7 +2611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2622,7 +2631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2642,7 +2651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2662,7 +2671,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>Fd_NDF_kg/d</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2746,7 +2755,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2766,7 +2775,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2786,7 +2795,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2806,7 +2815,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2826,7 +2835,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2866,7 +2875,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2886,7 +2895,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2906,7 +2915,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2926,7 +2935,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2946,7 +2955,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2966,7 +2975,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2986,7 +2995,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3026,7 +3035,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3066,7 +3075,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3086,7 +3095,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3146,7 +3155,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3206,7 +3215,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3226,7 +3235,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3266,7 +3275,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3306,7 +3315,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3370,7 +3379,7 @@
         <v>Fd_ForNDF</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3410,7 +3419,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3430,7 +3439,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3454,7 +3463,7 @@
         <v>Dt_RDPIn</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3474,7 +3483,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3494,7 +3503,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3514,7 +3523,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3554,7 +3563,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3574,7 +3583,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3594,7 +3603,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3614,7 +3623,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3634,7 +3643,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3654,7 +3663,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3674,7 +3683,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3708,7 +3717,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3725,7 +3734,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3759,7 +3768,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3779,7 +3788,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3799,7 +3808,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3819,7 +3828,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3836,7 +3845,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3856,7 +3865,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3873,7 +3882,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3890,7 +3899,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3907,7 +3916,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3927,7 +3936,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3944,7 +3953,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3964,7 +3973,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3984,7 +3993,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4001,7 +4010,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4021,7 +4030,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4038,7 +4047,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4058,7 +4067,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4075,7 +4084,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4095,7 +4104,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4112,7 +4121,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4132,7 +4141,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4172,7 +4181,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4192,7 +4201,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4212,7 +4221,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4232,7 +4241,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4252,7 +4261,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4272,7 +4281,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4292,7 +4301,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4312,7 +4321,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4332,7 +4341,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4352,7 +4361,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4386,7 +4395,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4426,7 +4435,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4446,7 +4455,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4466,7 +4475,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4503,7 +4512,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4523,7 +4532,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4543,7 +4552,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4563,7 +4572,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4580,7 +4589,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4600,7 +4609,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4617,7 +4626,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4637,7 +4646,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4657,7 +4666,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4674,7 +4683,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4694,7 +4703,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4714,7 +4723,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4734,7 +4743,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4751,7 +4760,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4771,7 +4780,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4788,7 +4797,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4808,7 +4817,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4845,7 +4854,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4865,7 +4874,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4885,7 +4894,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4919,7 +4928,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4936,7 +4945,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4976,7 +4985,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4996,7 +5005,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5016,7 +5025,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5036,7 +5045,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5053,7 +5062,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5073,7 +5082,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5093,7 +5102,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5127,7 +5136,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5147,7 +5156,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5167,7 +5176,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5187,7 +5196,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5207,7 +5216,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5224,7 +5233,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5244,7 +5253,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5264,7 +5273,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5284,7 +5293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5304,7 +5313,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5324,7 +5333,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5344,7 +5353,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5364,7 +5373,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5384,7 +5393,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5404,7 +5413,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5424,7 +5433,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5444,7 +5453,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5468,7 +5477,7 @@
         <v>Rsrv_Gain_empty</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5488,7 +5497,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5508,7 +5517,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5528,7 +5537,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5548,7 +5557,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5568,7 +5577,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5588,7 +5597,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5608,7 +5617,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5632,7 +5641,7 @@
         <v>Frm_Gain</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5656,7 +5665,7 @@
         <v>Frm_Gain_empty</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5676,7 +5685,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5700,7 +5709,7 @@
         <v>NPGain_FrmGain</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5720,7 +5729,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5740,7 +5749,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5760,7 +5769,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5780,7 +5789,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5800,7 +5809,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5820,7 +5829,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5840,7 +5849,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5860,7 +5869,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5883,7 +5892,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5903,7 +5912,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5923,7 +5932,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5943,7 +5952,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5967,7 +5976,7 @@
         <v>An_NDF</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5991,7 +6000,7 @@
         <v>Fe_CPend_g</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6015,7 +6024,7 @@
         <v>Fe_CPend</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6035,7 +6044,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6055,7 +6064,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6075,7 +6084,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6099,7 +6108,7 @@
         <v>Scrf_CP_g</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6119,7 +6128,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6139,7 +6148,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6159,7 +6168,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6179,7 +6188,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6199,7 +6208,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6219,7 +6228,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6243,7 +6252,7 @@
         <v>CPGain_FrmGain</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6267,7 +6276,7 @@
         <v>NPGain_FrmGain</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6291,7 +6300,7 @@
         <v>Frm_Gain</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6315,7 +6324,7 @@
         <v>Frm_Gain_empty</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6339,7 +6348,7 @@
         <v>Frm_NPgain</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>NPGain_RsrvGain</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6387,7 +6396,7 @@
         <v>Rsrv_Gain_empty</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6411,7 +6420,7 @@
         <v>Rsrv_NPgain</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6435,7 +6444,7 @@
         <v>Body_NPgain</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6455,7 +6464,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6475,7 +6484,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6499,7 +6508,7 @@
         <v>Gest_NCPgain_g</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6523,7 +6532,7 @@
         <v>Gest_NPgain_g</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6547,7 +6556,7 @@
         <v>Gest_NPuse_g</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6567,7 +6576,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6587,7 +6596,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6607,7 +6616,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6624,7 +6633,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6644,7 +6653,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6664,7 +6673,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6684,7 +6693,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6704,7 +6713,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6724,7 +6733,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6744,7 +6753,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6764,7 +6773,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6784,7 +6793,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6804,7 +6813,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>523</v>
       </c>
@@ -6812,7 +6821,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>525</v>
       </c>
@@ -6820,7 +6829,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>232</v>
       </c>
@@ -6837,7 +6846,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>233</v>
       </c>
@@ -6854,7 +6863,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>234</v>
       </c>
@@ -6868,7 +6877,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>235</v>
       </c>
@@ -6882,7 +6891,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>236</v>
       </c>
@@ -6896,7 +6905,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>237</v>
       </c>
@@ -6910,7 +6919,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>238</v>
       </c>
@@ -6924,7 +6933,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>239</v>
       </c>
@@ -6938,7 +6947,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>240</v>
       </c>
@@ -6964,20 +6973,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750FF422-2362-464E-8AF6-B12F418D3E4F}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>293</v>
       </c>
@@ -6988,7 +6997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -6999,7 +7008,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -7010,7 +7019,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -7021,7 +7030,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -7032,7 +7041,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>301</v>
       </c>
@@ -7043,7 +7052,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>302</v>
       </c>
@@ -7054,7 +7063,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>309</v>
       </c>
@@ -7065,7 +7074,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>311</v>
       </c>
@@ -7076,7 +7085,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -7087,7 +7096,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>318</v>
       </c>
@@ -7098,7 +7107,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>320</v>
       </c>
@@ -7109,7 +7118,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>322</v>
       </c>
@@ -7120,7 +7129,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -7131,7 +7140,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>325</v>
       </c>
@@ -7142,7 +7151,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>329</v>
       </c>
@@ -7153,7 +7162,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -7164,7 +7173,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>333</v>
       </c>
@@ -7175,7 +7184,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>335</v>
       </c>
@@ -7186,7 +7195,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>337</v>
       </c>
@@ -7197,7 +7206,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>339</v>
       </c>
@@ -7206,6 +7215,17 @@
       </c>
       <c r="C21" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22" t="s">
+        <v>536</v>
+      </c>
+      <c r="C22" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/src/nasem_dairy/data/Variable List.xlsx
+++ b/src/nasem_dairy/data/Variable List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braeden\OneDrive - University of Guelph\NASEM-Model-Python\src\nasem_dairy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7F192A-A044-42C7-8DE1-AA521F9111D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237316BE-E90F-4768-A237-063941207826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="810" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{53988E5A-922A-4D43-857E-3D1DAEEFC7AC}"/>
+    <workbookView xWindow="28680" yWindow="2205" windowWidth="29040" windowHeight="15840" xr2:uid="{53988E5A-922A-4D43-857E-3D1DAEEFC7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -2154,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CBC222-87FC-4995-A1F1-81937BD3329A}">
   <dimension ref="A1:G243"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F241" sqref="F241"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3984,7 +3984,7 @@
         <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E92" t="s">
         <v>146</v>
@@ -6975,7 +6975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750FF422-2362-464E-8AF6-B12F418D3E4F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
